--- a/biology/Médecine/Souleymane_Mboup/Souleymane_Mboup.xlsx
+++ b/biology/Médecine/Souleymane_Mboup/Souleymane_Mboup.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Souleymane Mboup, né le 2 juin 1951 à Dakar, Sénégal, est un pharmacien colonel de l'armée sénégalaise. Lui et son équipe de l'hôpital Le Dantec de Dakar ont été les premiers à décrire en 1985 le VIH-2, une forme de VIH touchant essentiellement la population de l'Afrique de l'Ouest[1].
-Le 14 juin 2000, Académie nationale de pharmacie de France lui décerne le premier prix de la pharmacie francophone pour l’année 2000[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Souleymane Mboup, né le 2 juin 1951 à Dakar, Sénégal, est un pharmacien colonel de l'armée sénégalaise. Lui et son équipe de l'hôpital Le Dantec de Dakar ont été les premiers à décrire en 1985 le VIH-2, une forme de VIH touchant essentiellement la population de l'Afrique de l'Ouest.
+Le 14 juin 2000, Académie nationale de pharmacie de France lui décerne le premier prix de la pharmacie francophone pour l’année 2000.
 Le 5 décembre 2001 il est élu Correspondant à titre étranger de l'Académie nationale de Pharmacie de France.  
 </t>
         </is>
